--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/Câu hay làm sai/Lịch Sử Đảng/Danh sách câu hỏi hay làm sai.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/Câu hay làm sai/Lịch Sử Đảng/Danh sách câu hỏi hay làm sai.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -43,6 +43,510 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
+  </si>
+  <si>
+    <t>Hà Nội được xác định là thủ đô của nước Việt Nam dân chủ cộng hoà vào năm nào</t>
+  </si>
+  <si>
+    <t>Năm 1945</t>
+  </si>
+  <si>
+    <t>Năm 1946</t>
+  </si>
+  <si>
+    <t>Năm 1930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Năm 1954 </t>
+  </si>
+  <si>
+    <t>Chỉ thị Kháng chiến kiến quốc của Trung ương Đảng ngày 25/11/1945, xác định nhiệm vụ nào là trung tâm, bao trùm nhất?</t>
+  </si>
+  <si>
+    <t>Cải thiện đời sống nhân dând</t>
+  </si>
+  <si>
+    <t>Chống thực dân Pháp xâm lượcc</t>
+  </si>
+  <si>
+    <t>Củng cố, bảo vệ chính quyền cách mạng; Chống thực dân Pháp xâm lược; Cải thiện đời sống nhân dân</t>
+  </si>
+  <si>
+    <t>Củng cố, bảo vệ chính quyền cách mạng</t>
+  </si>
+  <si>
+    <t>Chiến thắng nào đã căn bản đánh bại âm mưu đánh nhanh, thắng nhanh của thực dân Pháp?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biên Giới </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trung Du </t>
+  </si>
+  <si>
+    <t>Việt Bắc</t>
+  </si>
+  <si>
+    <t>Điện Biên Phủ.</t>
+  </si>
+  <si>
+    <t>Cuộc kháng chiến chống thực dân Pháp kéo dài bao nhiêu năm?</t>
+  </si>
+  <si>
+    <t>10 năm</t>
+  </si>
+  <si>
+    <t>7 năm</t>
+  </si>
+  <si>
+    <t>9 năm</t>
+  </si>
+  <si>
+    <t>8 năm</t>
+  </si>
+  <si>
+    <t>Đại hội nào quyết định Đảng ta ra hoạt động công khai?</t>
+  </si>
+  <si>
+    <t>Đại hội II</t>
+  </si>
+  <si>
+    <t>Đại hội IV</t>
+  </si>
+  <si>
+    <t>Đại hội V</t>
+  </si>
+  <si>
+    <t>Đại hội III</t>
+  </si>
+  <si>
+    <t>Hai đối tượng của cách mạng Việt Nam được nêu ra tại Chính cương Đảng Lao động Việt Nam:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đối tượng chính là chủ nghĩa đế quốc xâm lược, cụ thể là thực dân Pháp </t>
+  </si>
+  <si>
+    <t>Thực dân Pháp và phong kiến phản động</t>
+  </si>
+  <si>
+    <t>Đế quốc và phong kiến Việt Nam</t>
+  </si>
+  <si>
+    <t>Đối tượng phụ là phong kiến, cụ thể là phong kiến phản động</t>
+  </si>
+  <si>
+    <t>Bộ Chính trị đã ra chỉ thị về việc tổng tuyển cử trong cả nước sau giải phóng thống nhất nước nhà vào ngày nào?</t>
+  </si>
+  <si>
+    <t>30/1/1976</t>
+  </si>
+  <si>
+    <t>2/1/1976 12:00:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/1/1976 </t>
+  </si>
+  <si>
+    <t>25/4/1976</t>
+  </si>
+  <si>
+    <t>Chiến lược Chiến tranh đơn phương của đế quốc Mỹ ở miền Nam diễn ra trong giai đoạn nào?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1954-1964 </t>
+  </si>
+  <si>
+    <t>1954-1959</t>
+  </si>
+  <si>
+    <t>1964-1968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1954-1960 </t>
+  </si>
+  <si>
+    <t>Cuộc tổng khởi nghĩa đã giành được thành công trên cả nước trong vòng?</t>
+  </si>
+  <si>
+    <t>5 ngày</t>
+  </si>
+  <si>
+    <t>20 ngày</t>
+  </si>
+  <si>
+    <t>15 ngày</t>
+  </si>
+  <si>
+    <t>10 ngày</t>
+  </si>
+  <si>
+    <t>Hội nghị nào của Ban Chấp hành Trung ương Đảng (khoá II) đã thông qua Nghị quyết về Đường lối cách mạng miền Nam?</t>
+  </si>
+  <si>
+    <t>Hội nghị lần thứ 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hội nghị lần thứ 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hội nghị lần thứ 17 </t>
+  </si>
+  <si>
+    <t>Hội nghị lần thứ 18</t>
+  </si>
+  <si>
+    <t>Hội nghị nào của Đảng đã quyết định mở cuộc Tổng tấn công và nổi dậy Mậu Thân 1968?</t>
+  </si>
+  <si>
+    <t>Hội nghị Bộ Chính trị (10-1967)</t>
+  </si>
+  <si>
+    <t>Hội nghị Bộ Chính trị (12-1967)</t>
+  </si>
+  <si>
+    <t>Hội nghị Trung ương 13 - Khoá III của Đảng (1-1967)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hội nghị Bộ Chính trị (5-1967) </t>
+  </si>
+  <si>
+    <t>Mỹ - Diệm đã ra luật 10/59 vào thời gian nào?</t>
+  </si>
+  <si>
+    <t>5/10/1959 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>6/5/1959 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>10/10/1959 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>10/5/1959 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Mặt trận dân tộc giải phóng miền Nam Việt Nam ra đời khi nào?</t>
+  </si>
+  <si>
+    <t>21/12/1961</t>
+  </si>
+  <si>
+    <t>20/12/1960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/12/1960 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/12/1961 </t>
+  </si>
+  <si>
+    <t>Cuộc hành quân "Lam Sơn 719" của Mỹ - Nguỵ bị đánh bại vào thời gian nào?</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>Mỹ đã đưa Ngô Đình Diệm lên làm thủ tướng vào thời gian nào?</t>
+  </si>
+  <si>
+    <t>6/7/1954 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>15/7/1955</t>
+  </si>
+  <si>
+    <t>5/7/1954 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>7/7/1954 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Ai đã được cử làm Tư lệnh kiêm Bí thư Đảng uỷ chiến dịch Điện Biên Phủ</t>
+  </si>
+  <si>
+    <t>Võ Nguyên Giáp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Văn Đồng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Văn Tiến Dũng </t>
+  </si>
+  <si>
+    <t>Hoàng Văn Thái</t>
+  </si>
+  <si>
+    <t>Đối với cách mạng thế giới, thắng lợi của quân và dân ta trong kháng chiến chống Pháp và can thiệp Mỹ, đặc biệt là chiến thắng Điện Biên Phủ đã:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lần đầu tiên trong lịch sử một nước thuộc địa nhỏ yếu đã đánh thắng một nước thực dân hùng mạnh, đó là thắng lợi của các lực lượng hoà bình, dân chủ và XHCN trên toàn thế giới </t>
+  </si>
+  <si>
+    <t>Góp phần làm sụp đổ hoàn toàn hệ thống thực dân kiểu cũ trên thế giới</t>
+  </si>
+  <si>
+    <t>Cả ba phương án trên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cổ vũ mạnh mẽ nhân dân các dân tộc bị áp bức trên thế giới vùng lên đấu tranh giành độc lập </t>
+  </si>
+  <si>
+    <t>Dự thảo "Đề cương cách mạng miền Nam" được viết vào thời gian nào?</t>
+  </si>
+  <si>
+    <t>8/1956</t>
+  </si>
+  <si>
+    <t>9/1957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/1955 </t>
+  </si>
+  <si>
+    <t>7/1954</t>
+  </si>
+  <si>
+    <t>Nền tảng tư tưởng và kim chỉ nam được Đảng ta xác định tại Đại hội II là</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truyền thống dân tộc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tư tưởng Hồ Chí Minh </t>
+  </si>
+  <si>
+    <t>Chủ nghĩa Mác Lênin</t>
+  </si>
+  <si>
+    <t>Trước chiến tranh thế giới thứ nhất xã hội Việt Nam có những giai cấp nào?</t>
+  </si>
+  <si>
+    <t>Địa chủ phong kiến, nông dân và công nhân</t>
+  </si>
+  <si>
+    <t>Địa chủ phong kiến, nông dân, tiểu tư sản</t>
+  </si>
+  <si>
+    <t>Địa chủ phong kiến, nông dân, tư sản, tiểu tư sản và công nhân</t>
+  </si>
+  <si>
+    <t>Địa chủ phong kiến và nông dân</t>
+  </si>
+  <si>
+    <t>Tân Việt cách mạng Đảng ra đời năm nào?</t>
+  </si>
+  <si>
+    <t>5/1927</t>
+  </si>
+  <si>
+    <t>12/1929</t>
+  </si>
+  <si>
+    <t>7/1928</t>
+  </si>
+  <si>
+    <t>3/1926</t>
+  </si>
+  <si>
+    <t>Đảng Thanh niên cao vọng ra đời vào thời gian nào?</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>Đảng cộng sản Trung Quốc ra đời vào thời gian nào?</t>
+  </si>
+  <si>
+    <t>Năm 1922</t>
+  </si>
+  <si>
+    <t>Năm 1921</t>
+  </si>
+  <si>
+    <t>Năm 1924</t>
+  </si>
+  <si>
+    <t>Năm 1919</t>
+  </si>
+  <si>
+    <t>Trước khi bị thực dân Pháp xâm lược, xã hội Việt Nam có những giai cấp nào?</t>
+  </si>
+  <si>
+    <t>Trung ương cục miền Nam được thành lập vào thời gian nào?</t>
+  </si>
+  <si>
+    <t>10/1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/1961 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/1960 </t>
+  </si>
+  <si>
+    <t>10/1959</t>
+  </si>
+  <si>
+    <t>Cách mạng xã hội chủ nghĩa được bắt đầu xây dựng trên phạm vi cả nước kể từ năm nào?</t>
+  </si>
+  <si>
+    <t>Tháng 12/1960</t>
+  </si>
+  <si>
+    <t>Tháng 4/1975</t>
+  </si>
+  <si>
+    <t>Tháng 12/1986</t>
+  </si>
+  <si>
+    <t>Tháng 5/1954</t>
+  </si>
+  <si>
+    <t>Đâu là mục tiêu cơ bản của công nghiệp hóa, hiện đại hóa đất nước?</t>
+  </si>
+  <si>
+    <t>Tăng trưởng kinh tế đi đôi với thực hiện tiến bộ, công bằng xã hội.</t>
+  </si>
+  <si>
+    <t>Đưa nước ta trở thành nước công nghiệp theo hướng hiện đại.</t>
+  </si>
+  <si>
+    <t>Tất cả đều đúng</t>
+  </si>
+  <si>
+    <t>Nền tảng và động lực CNH,HĐH chính là khoa học, công nghệ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cương lĩnh xây dựng đất nước trong thời kỳ quá độ lên chủ nghĩa xã hội được thông qua trong Đại hội nào của Đảng? </t>
+  </si>
+  <si>
+    <t>Đại hội VIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đại hội VII </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đại hội VI </t>
+  </si>
+  <si>
+    <t>Đại hội IX</t>
+  </si>
+  <si>
+    <t>Chủ trương xây dựng và tổ chức thực hiện ba chương trình kinh tế lớn về lương thực, thực phẩm; hàng tiêu dùng; hàng xuất khẩu được Đảng đề ra tại Đại hội nào?</t>
+  </si>
+  <si>
+    <t>Đại hội lần thứ VI</t>
+  </si>
+  <si>
+    <t>Đại hội lần thứ IV</t>
+  </si>
+  <si>
+    <t>Đại hội lần thứ V</t>
+  </si>
+  <si>
+    <t>Đại hội lần thứ VII</t>
+  </si>
+  <si>
+    <t>Một trong những nội dung cơ bản của quá trình CNH HĐH gắn với phát triển kinh tế tri thức mà Đại hội X chỉ rõ là ?</t>
+  </si>
+  <si>
+    <t>Phát triển mạnh các ngành và sản phẩm kinh tế truyền thống của nước ta</t>
+  </si>
+  <si>
+    <t>Cả a, b, c đều đúng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phát triển mạnh các ngành và sản phẩm kinh tế  mà nước ta có lợi thế</t>
+  </si>
+  <si>
+    <t>Phát triển mạnh các ngành và sản phẩm kinh tế có giá trị tăng cao dựa vào tri thức</t>
+  </si>
+  <si>
+    <t>Đại hội lần thứ V của Đảng diễn ra vào thời gian nào?</t>
+  </si>
+  <si>
+    <t>3/1982</t>
+  </si>
+  <si>
+    <t>6/1991</t>
+  </si>
+  <si>
+    <t>7/1996</t>
+  </si>
+  <si>
+    <t>12/1976</t>
+  </si>
+  <si>
+    <t>Mục tiêu đối ngoại của nước ta là gì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hội nhập với các nước trên  thế giới</t>
+  </si>
+  <si>
+    <t>Nhằm phát triển đất nước trên mọi lĩnh vực</t>
+  </si>
+  <si>
+    <t>Thúc đẩy kinh tế trong nước phát triển</t>
+  </si>
+  <si>
+    <t>Nâng cao vị thế trong quan hệ ngoại giao khu vực và quốc tế</t>
+  </si>
+  <si>
+    <t>Đại hội nào của Đảng chủ trương phải kết hợp các mục tiêu kinh tế với các mục tiêu xã hội trong phạm vi cả nước, ở từng lĩnh vực, địa phương ?</t>
+  </si>
+  <si>
+    <t>Đại hội XI</t>
+  </si>
+  <si>
+    <t>Đại hội X</t>
+  </si>
+  <si>
+    <t>Đại hội đại biểu toàn quốc lần thứ VII (1991) của Đảng họp ở đâu?</t>
+  </si>
+  <si>
+    <t>Cao Bằng</t>
+  </si>
+  <si>
+    <t>Hương Cảng (Trung Quốc)</t>
+  </si>
+  <si>
+    <t>Sài Gòn</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Nguyễn Ái Quốc đọc tác phẩm của V.I. Lênin: Sơ thảo lần thứ nhất những luận cương về vấn đề dân tộc và vấn đề thuộc địa, đăng trên báo Nhân đạo vào thời gian nào?</t>
+  </si>
+  <si>
+    <t>7/1920</t>
+  </si>
+  <si>
+    <t>7/1930</t>
+  </si>
+  <si>
+    <t>12/1920</t>
+  </si>
+  <si>
+    <t>7/1935</t>
   </si>
 </sst>
 </file>
@@ -379,7 +883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -413,6 +917,706 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
